--- a/data/trans_orig/P1425-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7310AC3E-B3AB-4DAB-A0CD-4403BC0A8D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF7E8C7B-C82D-4126-90EB-E663BA4DCDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E085A5F-5E08-4831-96FE-E72C6020580C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{37924502-79B6-47CD-976E-F0788BC8C66F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="282">
   <si>
     <t>Población con diagnóstico de otros problemas mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,19 +95,19 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>4,64%</t>
+    <t>4,98%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,73%</t>
+    <t>3,62%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,52%</t>
+    <t>3,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -116,7 +116,7 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>95,36%</t>
+    <t>95,02%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,13 +125,13 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>96,27%</t>
+    <t>96,38%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>97,48%</t>
+    <t>96,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,652 +152,643 @@
     <t>1,79%</t>
   </si>
   <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>98,03%</t>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>1,35%</t>
@@ -806,25 +797,28 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>1,19%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>98,67%</t>
+    <t>98,69%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>98,81%</t>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
@@ -848,13 +842,7 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
     <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
   </si>
   <si>
     <t>0,12%</t>
@@ -1308,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9E58B3-EACC-42CB-BC9F-B88AF8832844}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC9E2EF-8279-4CA2-915D-FECA52148F82}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1898,10 +1886,10 @@
         <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -1910,13 +1898,13 @@
         <v>13404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -1928,10 +1916,10 @@
         <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1934,13 @@
         <v>948389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>895</v>
@@ -1961,13 +1949,13 @@
         <v>954989</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>1778</v>
@@ -1976,13 +1964,13 @@
         <v>1903377</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,7 +2026,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2056,7 +2044,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2071,7 +2059,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2086,7 +2074,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2089,13 @@
         <v>6773</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2116,13 +2104,13 @@
         <v>6529</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -2131,13 +2119,13 @@
         <v>13302</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2140,13 @@
         <v>671736</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>689</v>
@@ -2167,13 +2155,13 @@
         <v>677312</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>1323</v>
@@ -2182,13 +2170,13 @@
         <v>1349048</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,7 +2232,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2262,7 +2250,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2277,7 +2265,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2292,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2295,13 @@
         <v>9164</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2325,10 +2313,10 @@
         <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -2337,13 +2325,13 @@
         <v>16820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,13 +2346,13 @@
         <v>933058</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>990</v>
@@ -2376,10 +2364,10 @@
         <v>27</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>1975</v>
@@ -2388,10 +2376,10 @@
         <v>1964014</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>107</v>
@@ -2531,10 +2519,10 @@
         <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -2543,13 +2531,13 @@
         <v>77580</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,22 +2573,22 @@
         <v>121</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="M26" s="7">
         <v>6434</v>
       </c>
       <c r="N26" s="7">
-        <v>6578160</v>
+        <v>6578161</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,7 +2630,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
@@ -2677,7 +2665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E144F7-AEA6-411E-B7BC-69CC5347C8CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0044E3F2-43D2-4A6B-8C2A-66C99DA42A54}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3061,7 +3049,7 @@
         <v>133</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>134</v>
@@ -3079,7 +3067,7 @@
         <v>136</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -3088,13 +3076,13 @@
         <v>9006</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3097,13 @@
         <v>581753</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H10" s="7">
         <v>548</v>
@@ -3124,13 +3112,13 @@
         <v>582090</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>1094</v>
@@ -3139,13 +3127,13 @@
         <v>1163843</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,7 +3207,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3234,7 +3222,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3249,7 +3237,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3252,13 @@
         <v>11311</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3279,13 +3267,13 @@
         <v>8372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -3294,13 +3282,13 @@
         <v>19684</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3303,13 @@
         <v>1006636</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>931</v>
@@ -3330,13 +3318,13 @@
         <v>1020601</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>1856</v>
@@ -3345,13 +3333,13 @@
         <v>2027236</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,7 +3395,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3425,7 +3413,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3440,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3455,7 +3443,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3458,13 @@
         <v>8344</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3485,13 +3473,13 @@
         <v>3187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3500,13 +3488,13 @@
         <v>11531</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3509,13 @@
         <v>749279</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H18" s="7">
         <v>702</v>
@@ -3536,13 +3524,13 @@
         <v>773987</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="M18" s="7">
         <v>1385</v>
@@ -3551,13 +3539,13 @@
         <v>1523266</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,7 +3601,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3646,7 +3634,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3661,7 +3649,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3664,13 @@
         <v>7184</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -3691,13 +3679,13 @@
         <v>6839</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -3706,13 +3694,13 @@
         <v>14023</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3715,13 @@
         <v>940555</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H22" s="7">
         <v>997</v>
@@ -3742,13 +3730,13 @@
         <v>1045062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M22" s="7">
         <v>1902</v>
@@ -3757,13 +3745,13 @@
         <v>1985617</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3870,13 @@
         <v>32790</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -3897,13 +3885,13 @@
         <v>21454</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -3912,13 +3900,13 @@
         <v>54245</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3921,13 @@
         <v>3393989</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>3277</v>
@@ -3948,28 +3936,28 @@
         <v>3533644</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>6458</v>
       </c>
       <c r="N26" s="7">
-        <v>6927632</v>
+        <v>6927633</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,7 +3999,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
@@ -4046,7 +4034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1172DFF-6E64-4F39-9170-47D02F793836}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144EFD2E-5453-495A-AA78-05AAD428852D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4063,7 +4051,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4176,7 +4164,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4191,7 +4179,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4206,7 +4194,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,7 +4215,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4242,7 +4230,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4257,7 +4245,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,7 +4263,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -4290,7 +4278,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
@@ -4305,7 +4293,7 @@
         <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -4382,7 +4370,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4412,7 +4400,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4415,13 @@
         <v>7846</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4442,13 +4430,13 @@
         <v>4761</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -4457,13 +4445,13 @@
         <v>12607</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4466,13 @@
         <v>550408</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>547</v>
@@ -4493,13 +4481,13 @@
         <v>554718</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>1078</v>
@@ -4508,13 +4496,13 @@
         <v>1105126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,7 +4576,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4603,7 +4591,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4618,7 +4606,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4621,13 @@
         <v>8130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4648,13 +4636,13 @@
         <v>5148</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -4663,13 +4651,13 @@
         <v>13278</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4672,13 @@
         <v>1014301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>972</v>
@@ -4699,13 +4687,13 @@
         <v>1037765</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>1915</v>
@@ -4714,13 +4702,13 @@
         <v>2052066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,7 +4764,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4794,7 +4782,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4809,7 +4797,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4824,7 +4812,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4827,13 @@
         <v>5353</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4854,13 +4842,13 @@
         <v>7441</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -4872,10 +4860,10 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4878,13 @@
         <v>754199</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H18" s="7">
         <v>730</v>
@@ -4905,13 +4893,13 @@
         <v>777570</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M18" s="7">
         <v>1421</v>
@@ -4923,10 +4911,10 @@
         <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,7 +4970,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5015,7 +5003,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5030,7 +5018,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,10 +5036,10 @@
         <v>113</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -5060,13 +5048,13 @@
         <v>16406</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -5075,13 +5063,13 @@
         <v>26609</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,10 +5087,10 @@
         <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>945</v>
@@ -5111,13 +5099,13 @@
         <v>1027373</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>1867</v>
@@ -5126,13 +5114,13 @@
         <v>1954737</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>29</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5239,13 @@
         <v>31531</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -5266,13 +5254,13 @@
         <v>33756</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -5281,13 +5269,13 @@
         <v>65287</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5290,13 @@
         <v>3362819</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>3309</v>
@@ -5317,13 +5305,13 @@
         <v>3510786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>6509</v>
@@ -5332,13 +5320,13 @@
         <v>6873605</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,7 +5403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408F471E-4298-4E9B-8BA5-47184ABF04E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034A0314-D755-467C-8F03-95E2AFEAB891}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5432,7 +5420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5542,7 +5530,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>31</v>
@@ -5557,7 +5545,7 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>31</v>
@@ -5572,7 +5560,7 @@
         <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>31</v>
@@ -5596,37 +5584,37 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,37 +5635,37 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,7 +5736,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>31</v>
@@ -5763,7 +5751,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>31</v>
@@ -5778,7 +5766,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>31</v>
@@ -5802,7 +5790,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5817,7 +5805,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5832,7 +5820,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,7 +5841,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5868,7 +5856,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5883,7 +5871,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,7 +5942,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>31</v>
@@ -5969,7 +5957,7 @@
         <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -5984,7 +5972,7 @@
         <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>31</v>
@@ -6008,7 +5996,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6023,7 +6011,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6038,7 +6026,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,7 +6047,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6074,7 +6062,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6089,7 +6077,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,7 +6133,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6160,7 +6148,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>31</v>
@@ -6175,7 +6163,7 @@
         <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
@@ -6190,7 +6178,7 @@
         <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>31</v>
@@ -6214,7 +6202,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6229,7 +6217,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6265,7 +6253,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6280,7 +6268,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6351,7 +6339,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6366,7 +6354,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>31</v>
@@ -6381,7 +6369,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>31</v>
@@ -6396,7 +6384,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>31</v>
@@ -6420,7 +6408,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6435,7 +6423,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6450,7 +6438,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,7 +6459,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6486,7 +6474,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6501,7 +6489,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,7 +6560,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>31</v>
@@ -6587,7 +6575,7 @@
         <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>31</v>
@@ -6596,13 +6584,13 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>31</v>
@@ -6641,7 +6629,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6656,7 +6644,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,7 +6680,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6707,7 +6695,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,7 +6737,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>

--- a/data/trans_orig/P1425-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF7E8C7B-C82D-4126-90EB-E663BA4DCDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CF52C0E-B17B-41A2-933B-9689167A10C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{37924502-79B6-47CD-976E-F0788BC8C66F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB331599-E68A-4EBA-96DE-8CDD93E330D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="276">
   <si>
     <t>Población con diagnóstico de otros problemas mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No procede</t>
@@ -95,19 +95,19 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>4,98%</t>
+    <t>4,73%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,62%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,04%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>No</t>
@@ -116,7 +116,7 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>95,02%</t>
+    <t>95,27%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,19 +125,19 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>96,38%</t>
+    <t>96,42%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>96,96%</t>
+    <t>97,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -155,694 +155,676 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>3,2%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
   </si>
   <si>
     <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
   </si>
   <si>
     <t>0,12%</t>
@@ -1296,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC9E2EF-8279-4CA2-915D-FECA52148F82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8007B942-AD40-4B02-AF10-ACCE2A7774DD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,13 +2086,13 @@
         <v>6529</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -2119,13 +2101,13 @@
         <v>13302</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,10 +2125,10 @@
         <v>53</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" s="7">
         <v>689</v>
@@ -2155,7 +2137,7 @@
         <v>677312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>86</v>
@@ -2170,13 +2152,13 @@
         <v>1349048</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,7 +2214,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2250,7 +2232,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2265,7 +2247,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2280,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2277,13 @@
         <v>9164</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2313,10 +2295,10 @@
         <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -2325,13 +2307,13 @@
         <v>16820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2328,13 @@
         <v>933058</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>990</v>
@@ -2364,10 +2346,10 @@
         <v>27</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>1975</v>
@@ -2376,13 +2358,13 @@
         <v>1964014</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2471,7 +2453,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2486,7 +2468,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,13 +2483,13 @@
         <v>40732</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -2516,13 +2498,13 @@
         <v>36848</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -2531,13 +2513,13 @@
         <v>77580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,16 +2531,16 @@
         <v>3173</v>
       </c>
       <c r="D26" s="7">
-        <v>3235812</v>
+        <v>3235811</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>3261</v>
@@ -2567,13 +2549,13 @@
         <v>3342350</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>6434</v>
@@ -2582,13 +2564,13 @@
         <v>6578161</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,7 +2582,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>31</v>
@@ -2644,7 +2626,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2665,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0044E3F2-43D2-4A6B-8C2A-66C99DA42A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8496CB35-0F36-4CDE-9544-D21396E536D3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2682,7 +2664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2795,7 +2777,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2810,7 +2792,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2825,7 +2807,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,7 +2828,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2861,7 +2843,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2876,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2876,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -2909,7 +2891,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
@@ -2924,7 +2906,7 @@
         <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -3001,7 +2983,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3016,7 +2998,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3046,13 +3028,13 @@
         <v>5951</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -3061,13 +3043,13 @@
         <v>3055</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -3076,13 +3058,13 @@
         <v>9006</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3079,13 @@
         <v>581753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>548</v>
@@ -3112,13 +3094,13 @@
         <v>582090</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>1094</v>
@@ -3127,13 +3109,13 @@
         <v>1163843</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,7 +3189,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3222,7 +3204,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3237,7 +3219,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3234,13 @@
         <v>11311</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3267,13 +3249,13 @@
         <v>8372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -3285,10 +3267,10 @@
         <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3285,13 @@
         <v>1006636</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>931</v>
@@ -3318,13 +3300,13 @@
         <v>1020601</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>1856</v>
@@ -3336,10 +3318,10 @@
         <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,7 +3410,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3458,13 +3440,13 @@
         <v>8344</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3473,13 +3455,13 @@
         <v>3187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3494,7 +3476,7 @@
         <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3491,13 @@
         <v>749279</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H18" s="7">
         <v>702</v>
@@ -3524,13 +3506,13 @@
         <v>773987</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="M18" s="7">
         <v>1385</v>
@@ -3542,10 +3524,10 @@
         <v>67</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3583,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3634,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3649,7 +3631,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3646,13 @@
         <v>7184</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -3679,13 +3661,13 @@
         <v>6839</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -3694,13 +3676,13 @@
         <v>14023</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3697,13 @@
         <v>940555</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>997</v>
@@ -3730,13 +3712,13 @@
         <v>1045062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M22" s="7">
         <v>1902</v>
@@ -3745,13 +3727,13 @@
         <v>1985617</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +3807,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3840,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3855,7 +3837,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,10 +3855,10 @@
         <v>37</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -3885,13 +3867,13 @@
         <v>21454</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -3900,13 +3882,13 @@
         <v>54245</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,10 +3906,10 @@
         <v>47</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H26" s="7">
         <v>3277</v>
@@ -3936,28 +3918,28 @@
         <v>3533644</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>6458</v>
       </c>
       <c r="N26" s="7">
-        <v>6927633</v>
+        <v>6927632</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,7 +3981,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
@@ -4013,7 +3995,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4034,7 +4016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144EFD2E-5453-495A-AA78-05AAD428852D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7EBEAB-6656-48AB-8BC6-7F44E33C39A8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4051,7 +4033,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4164,7 +4146,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4179,7 +4161,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4194,7 +4176,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,7 +4197,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4230,7 +4212,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4245,7 +4227,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,7 +4245,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -4278,7 +4260,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
@@ -4293,7 +4275,7 @@
         <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -4370,7 +4352,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4385,7 +4367,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4400,7 +4382,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4397,13 @@
         <v>7846</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4430,13 +4412,13 @@
         <v>4761</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -4445,13 +4427,13 @@
         <v>12607</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4448,13 @@
         <v>550408</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>547</v>
@@ -4481,13 +4463,13 @@
         <v>554718</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>1078</v>
@@ -4496,13 +4478,13 @@
         <v>1105126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +4558,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4591,7 +4573,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4606,7 +4588,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4603,13 @@
         <v>8130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4636,13 +4618,13 @@
         <v>5148</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -4651,13 +4633,13 @@
         <v>13278</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4654,13 @@
         <v>1014301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>972</v>
@@ -4687,13 +4669,13 @@
         <v>1037765</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>1915</v>
@@ -4702,13 +4684,13 @@
         <v>2052066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,7 +4779,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4812,7 +4794,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,13 +4809,13 @@
         <v>5353</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4842,13 +4824,13 @@
         <v>7441</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -4860,10 +4842,10 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,13 +4860,13 @@
         <v>754199</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H18" s="7">
         <v>730</v>
@@ -4893,13 +4875,13 @@
         <v>777570</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M18" s="7">
         <v>1421</v>
@@ -4911,10 +4893,10 @@
         <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,7 +4952,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5003,7 +4985,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5018,7 +5000,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5015,13 @@
         <v>10202</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -5051,10 +5033,10 @@
         <v>236</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -5063,10 +5045,10 @@
         <v>26609</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>240</v>
@@ -5084,13 +5066,13 @@
         <v>927365</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
       <c r="H22" s="7">
         <v>945</v>
@@ -5099,13 +5081,13 @@
         <v>1027373</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>1867</v>
@@ -5114,13 +5096,13 @@
         <v>1954737</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,7 +5176,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5209,7 +5191,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5224,7 +5206,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5221,13 @@
         <v>31531</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -5254,13 +5236,13 @@
         <v>33756</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -5269,13 +5251,13 @@
         <v>65287</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5272,13 @@
         <v>3362819</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H26" s="7">
         <v>3309</v>
@@ -5305,13 +5287,13 @@
         <v>3510786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="M26" s="7">
         <v>6509</v>
@@ -5320,13 +5302,13 @@
         <v>6873605</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>259</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,7 +5364,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5403,7 +5385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034A0314-D755-467C-8F03-95E2AFEAB891}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709AB778-4ADA-4DA9-960A-3299B8F515DF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5420,7 +5402,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5530,7 +5512,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>31</v>
@@ -5545,7 +5527,7 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>31</v>
@@ -5560,7 +5542,7 @@
         <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>31</v>
@@ -5584,7 +5566,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>264</v>
+        <v>83</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5599,7 +5581,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5614,7 +5596,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,7 +5617,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>264</v>
+        <v>83</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5650,7 +5632,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5665,7 +5647,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>266</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,7 +5718,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>31</v>
@@ -5751,7 +5733,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>31</v>
@@ -5766,7 +5748,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>31</v>
@@ -5790,7 +5772,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>95</v>
+        <v>261</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5805,7 +5787,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5820,7 +5802,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,7 +5823,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>95</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5856,7 +5838,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5871,7 +5853,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,7 +5924,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>31</v>
@@ -5957,7 +5939,7 @@
         <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -5972,7 +5954,7 @@
         <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>31</v>
@@ -5996,7 +5978,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6011,7 +5993,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6026,7 +6008,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,7 +6029,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6062,7 +6044,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6077,7 +6059,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,7 +6130,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>31</v>
@@ -6163,7 +6145,7 @@
         <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
@@ -6178,7 +6160,7 @@
         <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>31</v>
@@ -6217,7 +6199,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6268,7 +6250,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6339,7 +6321,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6354,7 +6336,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>31</v>
@@ -6369,7 +6351,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>31</v>
@@ -6384,7 +6366,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>31</v>
@@ -6408,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6423,7 +6405,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6438,7 +6420,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,7 +6441,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6474,7 +6456,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6489,7 +6471,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,7 +6542,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>31</v>
@@ -6575,7 +6557,7 @@
         <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>31</v>
@@ -6590,7 +6572,7 @@
         <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>31</v>
@@ -6614,7 +6596,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6629,7 +6611,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6644,7 +6626,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,7 +6647,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6680,7 +6662,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6695,7 +6677,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,7 +6733,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1425-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA3A4B7B-91A2-437C-B121-E0E880E2CE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47274E46-8057-4589-B8FB-C0E14D2B66A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{902D900C-329E-45E9-980C-7447C0A31279}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F62E293C-98DB-4376-BBEA-ABFFD1373DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="223">
   <si>
     <t>Población con diagnóstico de otros problemas mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,681 +67,624 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,73%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>98,66%</t>
-  </si>
-  <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
     <t>1,33%</t>
   </si>
   <si>
@@ -751,15 +694,9 @@
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
     <t>98,67%</t>
   </si>
   <si>
@@ -767,9 +704,6 @@
   </si>
   <si>
     <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
   </si>
   <si>
     <t>98,81%</t>
@@ -1184,8 +1118,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E067FC-1152-469F-9F7F-A918B012A50D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEEC910-8FC1-4792-B0E6-E0DFDEA5CCEF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1302,10 +1236,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>1054</v>
+        <v>11384</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1317,85 +1251,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>829</v>
+        <v>9258</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>1883</v>
+        <v>20642</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>671</v>
       </c>
       <c r="D5" s="7">
-        <v>114304</v>
+        <v>682628</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>127</v>
+        <v>687</v>
       </c>
       <c r="I5" s="7">
-        <v>111926</v>
+        <v>679093</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>231</v>
+        <v>1358</v>
       </c>
       <c r="N5" s="7">
-        <v>226230</v>
+        <v>1361721</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1404,153 +1338,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>10330</v>
+        <v>13411</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>8429</v>
+        <v>13404</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
+        <v>26</v>
+      </c>
+      <c r="N7" s="7">
+        <v>26816</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="7">
-        <v>19</v>
-      </c>
-      <c r="N7" s="7">
-        <v>18759</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>567</v>
+        <v>883</v>
       </c>
       <c r="D8" s="7">
-        <v>568324</v>
+        <v>948389</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>560</v>
+        <v>895</v>
       </c>
       <c r="I8" s="7">
-        <v>567167</v>
+        <v>954989</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1778</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1903377</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1127</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1135491</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,153 +1493,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>13411</v>
+        <v>6773</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6529</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="7">
         <v>14</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="7">
-        <v>13</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13404</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="7">
-        <v>26</v>
-      </c>
       <c r="N10" s="7">
-        <v>26816</v>
+        <v>13302</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>883</v>
+        <v>634</v>
       </c>
       <c r="D11" s="7">
-        <v>948389</v>
+        <v>671736</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>895</v>
+        <v>689</v>
       </c>
       <c r="I11" s="7">
-        <v>954989</v>
+        <v>677312</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>1778</v>
+        <v>1323</v>
       </c>
       <c r="N11" s="7">
-        <v>1903377</v>
+        <v>1349048</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,153 +1648,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>6773</v>
+        <v>9164</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>6529</v>
+        <v>7656</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>13302</v>
+        <v>16820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>634</v>
+        <v>985</v>
       </c>
       <c r="D14" s="7">
-        <v>671736</v>
+        <v>933058</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>689</v>
+        <v>990</v>
       </c>
       <c r="I14" s="7">
-        <v>677312</v>
+        <v>1030956</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>1323</v>
+        <v>1975</v>
       </c>
       <c r="N14" s="7">
-        <v>1349048</v>
+        <v>1964014</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,153 +1803,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>9164</v>
+        <v>40732</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>7656</v>
+        <v>36848</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="N16" s="7">
-        <v>16820</v>
+        <v>77580</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>985</v>
+        <v>3173</v>
       </c>
       <c r="D17" s="7">
-        <v>933058</v>
+        <v>3235811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
-        <v>990</v>
+        <v>3261</v>
       </c>
       <c r="I17" s="7">
-        <v>1030956</v>
+        <v>3342349</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>1975</v>
+        <v>6434</v>
       </c>
       <c r="N17" s="7">
-        <v>1964014</v>
+        <v>6578161</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,217 +1958,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>41</v>
-      </c>
-      <c r="D19" s="7">
-        <v>40732</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="7">
-        <v>36</v>
-      </c>
-      <c r="I19" s="7">
-        <v>36848</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="7">
-        <v>77</v>
-      </c>
-      <c r="N19" s="7">
-        <v>77580</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3173</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3235812</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3261</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3342350</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6434</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6578160</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>107</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2247,8 +2025,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C2B177-B83F-400A-AD0B-29A35D4026CC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97899365-74FB-4191-A751-56E88D429B37}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2264,7 +2042,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2365,100 +2143,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5951</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3055</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>9006</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>668</v>
       </c>
       <c r="D5" s="7">
-        <v>115765</v>
+        <v>697518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>647</v>
       </c>
       <c r="I5" s="7">
-        <v>111905</v>
+        <v>693995</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
-        <v>221</v>
+        <v>1315</v>
       </c>
       <c r="N5" s="7">
-        <v>227670</v>
+        <v>1391513</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,153 +2245,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>5951</v>
+        <v>11311</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8372</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>18</v>
+      </c>
+      <c r="N7" s="7">
+        <v>19684</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3055</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M7" s="7">
-        <v>9</v>
-      </c>
-      <c r="N7" s="7">
-        <v>9006</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>546</v>
+        <v>925</v>
       </c>
       <c r="D8" s="7">
-        <v>581753</v>
+        <v>1006636</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="7">
+        <v>931</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1020601</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="7">
-        <v>548</v>
-      </c>
-      <c r="I8" s="7">
-        <v>582090</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1856</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2027237</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1094</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1163843</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,153 +2400,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>11311</v>
+        <v>8344</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3187</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8372</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>19684</v>
+        <v>11531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>925</v>
+        <v>683</v>
       </c>
       <c r="D11" s="7">
-        <v>1006636</v>
+        <v>749279</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="7">
+        <v>702</v>
+      </c>
+      <c r="I11" s="7">
+        <v>773987</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="7">
-        <v>931</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1020601</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="M11" s="7">
-        <v>1856</v>
+        <v>1385</v>
       </c>
       <c r="N11" s="7">
-        <v>2027236</v>
+        <v>1523266</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,153 +2555,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7184</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
-        <v>8344</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>6839</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" s="7">
+        <v>11</v>
+      </c>
+      <c r="N13" s="7">
+        <v>14023</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3187</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M13" s="7">
-        <v>9</v>
-      </c>
-      <c r="N13" s="7">
-        <v>11531</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>683</v>
+        <v>905</v>
       </c>
       <c r="D14" s="7">
-        <v>749279</v>
+        <v>940555</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="7">
+        <v>997</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1045062</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1902</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1985617</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="7">
-        <v>702</v>
-      </c>
-      <c r="I14" s="7">
-        <v>773987</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1385</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1523266</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,153 +2710,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>7184</v>
+        <v>32790</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="7">
+        <v>19</v>
+      </c>
+      <c r="I16" s="7">
+        <v>21454</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="7">
+        <v>47</v>
+      </c>
+      <c r="N16" s="7">
+        <v>54245</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6839</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M16" s="7">
-        <v>11</v>
-      </c>
-      <c r="N16" s="7">
-        <v>14023</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>905</v>
+        <v>3181</v>
       </c>
       <c r="D17" s="7">
-        <v>940555</v>
+        <v>3393989</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
-        <v>997</v>
+        <v>3277</v>
       </c>
       <c r="I17" s="7">
-        <v>1045062</v>
+        <v>3533644</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
-        <v>1902</v>
+        <v>6458</v>
       </c>
       <c r="N17" s="7">
-        <v>1985617</v>
+        <v>6927632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,217 +2865,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6981877</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>28</v>
-      </c>
-      <c r="D19" s="7">
-        <v>32790</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="7">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7">
-        <v>21454</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="7">
-        <v>47</v>
-      </c>
-      <c r="N19" s="7">
-        <v>54245</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3181</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3393989</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3277</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3533644</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6458</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6927632</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>107</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3310,8 +2932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92409C2-CBAA-43D4-98BE-D4F740427EDD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC51708-12A3-40EC-8B11-07C2E6121EA0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3327,7 +2949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3428,100 +3050,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7846</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4761</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" s="7">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>12607</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>113</v>
+        <v>644</v>
       </c>
       <c r="D5" s="7">
-        <v>116546</v>
+        <v>666954</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="7">
+        <v>662</v>
+      </c>
+      <c r="I5" s="7">
+        <v>668078</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1306</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1335032</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7">
-        <v>115</v>
-      </c>
-      <c r="I5" s="7">
-        <v>113360</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>228</v>
-      </c>
-      <c r="N5" s="7">
-        <v>229906</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,54 +3152,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3586,97 +3208,97 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>7846</v>
+        <v>8130</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>4761</v>
+        <v>5148</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>12607</v>
+        <v>13278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>531</v>
+        <v>943</v>
       </c>
       <c r="D8" s="7">
-        <v>550408</v>
+        <v>1014301</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7">
-        <v>547</v>
+        <v>972</v>
       </c>
       <c r="I8" s="7">
-        <v>554718</v>
+        <v>1037765</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
-        <v>1078</v>
+        <v>1915</v>
       </c>
       <c r="N8" s="7">
-        <v>1105126</v>
+        <v>2052066</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,153 +3307,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>8130</v>
+        <v>5353</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>5148</v>
+        <v>7441</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>13278</v>
+        <v>12793</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>943</v>
+        <v>691</v>
       </c>
       <c r="D11" s="7">
-        <v>1014301</v>
+        <v>754199</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
-        <v>972</v>
+        <v>730</v>
       </c>
       <c r="I11" s="7">
-        <v>1037765</v>
+        <v>777570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
-        <v>1915</v>
+        <v>1421</v>
       </c>
       <c r="N11" s="7">
-        <v>2052066</v>
+        <v>1531770</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,153 +3462,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>5353</v>
+        <v>10202</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>7441</v>
+        <v>16406</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>12793</v>
+        <v>26609</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>691</v>
+        <v>922</v>
       </c>
       <c r="D14" s="7">
-        <v>754199</v>
+        <v>927365</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
-        <v>730</v>
+        <v>945</v>
       </c>
       <c r="I14" s="7">
-        <v>777570</v>
+        <v>1027373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
-        <v>1421</v>
+        <v>1867</v>
       </c>
       <c r="N14" s="7">
-        <v>1531770</v>
+        <v>1954737</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,153 +3617,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>10202</v>
+        <v>31531</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I16" s="7">
-        <v>16406</v>
+        <v>33756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="N16" s="7">
-        <v>26609</v>
+        <v>65287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>922</v>
+        <v>3200</v>
       </c>
       <c r="D17" s="7">
-        <v>927365</v>
+        <v>3362819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
-        <v>945</v>
+        <v>3309</v>
       </c>
       <c r="I17" s="7">
-        <v>1027373</v>
+        <v>3510786</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
-        <v>1867</v>
+        <v>6509</v>
       </c>
       <c r="N17" s="7">
-        <v>1954737</v>
+        <v>6873605</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,217 +3772,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>31</v>
-      </c>
-      <c r="D19" s="7">
-        <v>31531</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H19" s="7">
-        <v>29</v>
-      </c>
-      <c r="I19" s="7">
-        <v>33756</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="M19" s="7">
-        <v>60</v>
-      </c>
-      <c r="N19" s="7">
-        <v>65287</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3200</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3362819</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3309</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3510786</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6509</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6873605</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>107</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
